--- a/me/3.shopping/3.Xay-dung-chuc-nang-hien-thi-san-pham.xlsx
+++ b/me/3.shopping/3.Xay-dung-chuc-nang-hien-thi-san-pham.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA745CA-502A-4050-9DCC-F85F059035BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE147866-5B50-4C04-831E-C271CDC17C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetItems" sheetId="1" r:id="rId1"/>
+    <sheet name="GetItemByID" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
   <si>
     <t>構成</t>
   </si>
@@ -229,6 +230,54 @@
   </si>
   <si>
     <t>Sau này thì mình có thể lấy danh sách sác sản phẩm bằng cách gọi đến api nào đó trả về 1 chuỗi json chứa danh sách các sản phẩm</t>
+  </si>
+  <si>
+    <t>Xây dựng phương thức getItemByID trong ProductRepository nhận vào id của sản phẩm và trả về thông tin của sản phẩm đó</t>
+  </si>
+  <si>
+    <t>        // Cach 1</t>
+  </si>
+  <si>
+    <t>        /*</t>
+  </si>
+  <si>
+    <t>        let total : number = this.products.length;</t>
+  </si>
+  <si>
+    <t>        for(let i : number = 0; i &lt; total; i++) {</t>
+  </si>
+  <si>
+    <t>            if(this.products[i].id == id) return this.products[i];</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>        */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>        // Cach 2</t>
+  </si>
+  <si>
+    <t>        let filter : Product[] = this.products.filter(</t>
+  </si>
+  <si>
+    <t>            product =&gt; product.id == id</t>
+  </si>
+  <si>
+    <t>        );</t>
+  </si>
+  <si>
+    <t>        if(filter.length &gt; 0) return filter[0];</t>
+  </si>
+  <si>
+    <t>let productItem : Product = productRepository.getItemByID(100);</t>
+  </si>
+  <si>
+    <t>console.log(productItem);</t>
   </si>
 </sst>
 </file>
@@ -720,6 +769,258 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A96CBA-95C0-4D27-CED6-3ED61EBCA416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="15582900"/>
+          <a:ext cx="1409700" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>166748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B57BE1-D7FC-4861-BC33-33F94BA27051}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514975" y="15935325"/>
+          <a:ext cx="6296025" cy="1376423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A56835E-C9B5-1E69-BABE-DBD9E1040C67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2181225" y="16954500"/>
+          <a:ext cx="3771900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132495</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C1A646-1F47-E334-AF22-647D5AB3B3E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18097500"/>
+          <a:ext cx="6838095" cy="876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9201C15-61F2-88D4-CB44-347427B17475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="18983325"/>
+          <a:ext cx="1447800" cy="4210050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -988,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,4 +2763,1696 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EA50F0-1314-43F6-827D-8941A82DEF09}">
+  <dimension ref="A2:P132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="M113" sqref="M113"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="17"/>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="6"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="6"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="22"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="6"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="10"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="17"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="17"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="17"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="17"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="11"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="17"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="11"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="17"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="11"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="17"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="11"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="17"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="11"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="17"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="11"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="17"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="17"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="17"/>
+      <c r="I122" t="s">
+        <v>61</v>
+      </c>
+      <c r="J122" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="11"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="17"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="11"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="17"/>
+      <c r="I124" t="s">
+        <v>61</v>
+      </c>
+      <c r="J124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="11"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="17"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="11"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="17"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="11"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="17"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="11"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="17"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="17"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="11"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="17"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="11"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="17"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="11"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.shopping/3.Xay-dung-chuc-nang-hien-thi-san-pham.xlsx
+++ b/me/3.shopping/3.Xay-dung-chuc-nang-hien-thi-san-pham.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE147866-5B50-4C04-831E-C271CDC17C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC43A764-64CE-4560-9DE0-3FFECA37BE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetItems" sheetId="1" r:id="rId1"/>
     <sheet name="GetItemByID" sheetId="2" r:id="rId2"/>
+    <sheet name="ShowItemsInHTML" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="190">
   <si>
     <t>構成</t>
   </si>
@@ -278,6 +279,324 @@
   </si>
   <si>
     <t>console.log(productItem);</t>
+  </si>
+  <si>
+    <t>        let xhtmlResult: string = "";</t>
+  </si>
+  <si>
+    <t>        if(total &gt; 0) {</t>
+  </si>
+  <si>
+    <t>            for(let i  : number = 0; i &lt; total; i++) {</t>
+  </si>
+  <si>
+    <t>                let currentItem: Product = this.products[i];</t>
+  </si>
+  <si>
+    <t>                xhtmlResult += `&lt;div class="media product"&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;div class="media-left"&gt;</t>
+  </si>
+  <si>
+    <t>                                    &lt;a href="#"&gt;</t>
+  </si>
+  <si>
+    <t>                                        &lt;img class="media-object" src="img/characters/${ currentItem.image }" alt="${ currentItem.name }"&gt;</t>
+  </si>
+  <si>
+    <t>                                    &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>                                &lt;div class="media-body"&gt;</t>
+  </si>
+  <si>
+    <t>                                    &lt;h4 class="media-heading"&gt;${ currentItem.name }&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>                                    &lt;p&gt;${ currentItem.summary }&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>                                    &lt;input name="quantity-product-${ currentItem.id }" type="number" value="1" min="1"&gt;</t>
+  </si>
+  <si>
+    <t>                                    &lt;a data-product="${ currentItem.id }" href="#" class="price"&gt; ${ currentItem.price } &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>                            &lt;/div&gt;`;</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>        } else {</t>
+  </si>
+  <si>
+    <t>            xhtmlResult = "Empty product in my shop";</t>
+  </si>
+  <si>
+    <t>        return xhtmlResult;</t>
+  </si>
+  <si>
+    <t>console.log(productRepository.showItemsInHTML());</t>
+  </si>
+  <si>
+    <t>Phương thức showItemsInHTML trong ProductRepository có nhiệm vụ đọc danh sách các sản phẩm hiện có. Lồng ghép các mã html vào hiển thị lên cho người dùng thấy</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;html lang="en"&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;head&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;meta charset="utf-8" /&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;meta http-equiv="X-UA-Compatible" content="IE=edge" /&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;meta name="viewport" content="width=device-width, initial-scale=1" /&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;title&gt;Shopping cart&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;link href="css/bootstrap.min.css" rel="stylesheet" /&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;link href="./css/styles.css" rel="stylesheet" /&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;body&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;div class="container"&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="row"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;div class="col-xs-12 col-sm-12 col-md-12 col-lg-12"&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;h1 class="page-title"&gt;Shopping Cart &lt;small&gt;&lt;/small&gt;&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;div class="col-xs-12 col-sm-6 col-md-6 col-lg-6"&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;div class="panel panel-primary"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div class="panel-heading"&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;h1 class="panel-title"&gt;List Products&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div class="panel-body" id="list-product"&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;div class="panel panel-danger"&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;h1 class="panel-title"&gt;Your Cart&lt;/h1&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div class="panel-body"&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;table class="table"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;thead&gt;</t>
+  </si>
+  <si>
+    <t>                  &lt;tr&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;th width="4%"&gt;#&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;th&gt;Pokemon&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;th width="15%"&gt;Price&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;th width="4%"&gt;Quantity&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;th width="20%"&gt;Subtotal&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;th width="25%"&gt;Action&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>                  &lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/thead&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;tbody id="my-cart-body"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;th scope="row"&gt;1&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;bulbasaur&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;69 USD&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;</t>
+  </si>
+  <si>
+    <t>                      &lt;input</t>
+  </si>
+  <si>
+    <t>                        name="cart-item-quantity-100"</t>
+  </si>
+  <si>
+    <t>                        type="number"</t>
+  </si>
+  <si>
+    <t>                        value="1"</t>
+  </si>
+  <si>
+    <t>                        min="1"</t>
+  </si>
+  <si>
+    <t>                      /&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;&lt;strong&gt;69 USD&lt;/strong&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                      &lt;a</t>
+  </si>
+  <si>
+    <t>                        class="label label-info update-cart-item"</t>
+  </si>
+  <si>
+    <t>                        href="#"</t>
+  </si>
+  <si>
+    <t>                        data-product="100"</t>
+  </si>
+  <si>
+    <t>                        &gt;Update&lt;/a</t>
+  </si>
+  <si>
+    <t>                      &gt;</t>
+  </si>
+  <si>
+    <t>                        class="label label-danger delete-cart-item"</t>
+  </si>
+  <si>
+    <t>                        &gt;Delete&lt;/a</t>
+  </si>
+  <si>
+    <t>                    &lt;th scope="row"&gt;2&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;ivysaur&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;22 USD&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                        name="cart-item-quantity-102"</t>
+  </si>
+  <si>
+    <t>                        value="3"</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;&lt;strong&gt;66 USD&lt;/strong&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                        data-product="102"</t>
+  </si>
+  <si>
+    <t>                    &lt;th scope="row"&gt;3&lt;/th&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;charmander&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;18 USD&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                        name="cart-item-quantity-101"</t>
+  </si>
+  <si>
+    <t>                    &lt;td&gt;&lt;strong&gt;18 USD&lt;/strong&gt;&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                        data-product="101"</t>
+  </si>
+  <si>
+    <t>                &lt;/tbody&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;tfoot id="my-cart-footer"&gt;</t>
+  </si>
+  <si>
+    <t>                    &lt;td colspan="4"&gt;</t>
+  </si>
+  <si>
+    <t>                      There are &lt;b&gt;5&lt;/b&gt; items in your shopping cart.</t>
+  </si>
+  <si>
+    <t>                    &lt;td colspan="2" class="total-price text-left"&gt;153 USD&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;/tfoot&gt;</t>
+  </si>
+  <si>
+    <t>              &lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>          &lt;div class="alert alert-success" role="alert" id="mnotification"&gt;</t>
+  </si>
+  <si>
+    <t>            Added successfull !!</t>
+  </si>
+  <si>
+    <t>    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>xóa đi phần html hiển thị các product trong kho hàng</t>
+  </si>
+  <si>
+    <t>sau khi xóa đi phần html hiển thị các product trong kho hàng</t>
   </si>
 </sst>
 </file>
@@ -1021,6 +1340,417 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A1F69F-E44B-3FD4-AFCA-F48D32355E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2409825" y="23602950"/>
+          <a:ext cx="104775" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB85AF3E-E669-8380-3974-DFCB0B39F66F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="22440900"/>
+          <a:ext cx="752475" cy="3933825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>41012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65F883E3-7E41-32FE-1FF2-06223B846E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22479000"/>
+          <a:ext cx="5629275" cy="803012"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EE4626-1016-D491-FD35-37612D87E4C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="23288625"/>
+          <a:ext cx="1476375" cy="4219575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A3AE0D-1EDE-7BF5-EA42-90D8384C2A1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2457450" y="27955875"/>
+          <a:ext cx="76200" cy="32670750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3242AD36-9F47-6C79-BEE1-1EF0245AEEBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="26831925"/>
+          <a:ext cx="885825" cy="33842325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>65836</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>104168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D57A95C-8DAE-E0DE-1114-1B736AC96E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="20012025"/>
+          <a:ext cx="6714286" cy="4857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5B968A-8105-B879-6F35-29BB149BCFAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3781425" y="20955000"/>
+          <a:ext cx="3343275" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1289,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:U122"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="J95" sqref="J95"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116:H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,10 +3497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EA50F0-1314-43F6-827D-8941A82DEF09}">
-  <dimension ref="A2:P132"/>
+  <dimension ref="A2:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="M113" sqref="M113"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135:H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,6 +5181,4218 @@
       <c r="G132" s="19"/>
       <c r="H132" s="20"/>
     </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="4"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="21"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="6"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C621460-AB24-409E-9B1B-2C0FAA253CC9}">
+  <dimension ref="A2:P312"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L184" sqref="L184"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="17"/>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="4"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="6"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="6"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="6"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="6"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="6"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="6"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="22"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="6"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="6"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="6"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="6"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="6"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="6"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="6"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B97" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="6"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B98" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="6"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B99" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="6"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B100" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="6"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B101" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="6"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B102" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="6"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="10"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="4"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B110" s="5"/>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="11"/>
+      <c r="B127" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="15"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="11"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="17"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="17"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="11"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="17"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="11"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="17"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="11"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="17"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="17"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="17"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="11"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="17"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="17"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="11"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="17"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="17"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="17"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="17"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="17"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="17"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="17"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="17"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="17"/>
+      <c r="I145" t="s">
+        <v>61</v>
+      </c>
+      <c r="J145" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="17"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="17"/>
+      <c r="I147" t="s">
+        <v>61</v>
+      </c>
+      <c r="J147" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="17"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="17"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="17"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="17"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="17"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="17"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="11"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="17"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="20"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B159" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="6"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
+      <c r="I161" s="21"/>
+      <c r="J161" s="6"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
+      <c r="I162" s="21"/>
+      <c r="J162" s="6"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21"/>
+      <c r="I163" s="21"/>
+      <c r="J163" s="6"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21"/>
+      <c r="I164" s="21"/>
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
+      <c r="I165" s="21"/>
+      <c r="J165" s="6"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21"/>
+      <c r="I166" s="21"/>
+      <c r="J166" s="6"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
+      <c r="I167" s="21"/>
+      <c r="J167" s="6"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21"/>
+      <c r="I168" s="21"/>
+      <c r="J168" s="6"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="21"/>
+      <c r="J169" s="6"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="21"/>
+      <c r="I170" s="21"/>
+      <c r="J170" s="6"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="21"/>
+      <c r="I171" s="21"/>
+      <c r="J171" s="6"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
+      <c r="I172" s="21"/>
+      <c r="J172" s="6"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
+      <c r="I173" s="21"/>
+      <c r="J173" s="6"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C174" s="21"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
+      <c r="I174" s="21"/>
+      <c r="J174" s="6"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="21"/>
+      <c r="I175" s="21"/>
+      <c r="J175" s="6"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="C176" s="21"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21"/>
+      <c r="I176" s="21"/>
+      <c r="J176" s="6"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C177" s="21"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="21"/>
+      <c r="J177" s="6"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C178" s="21"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
+      <c r="I178" s="21"/>
+      <c r="J178" s="6"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C179" s="21"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
+      <c r="I179" s="21"/>
+      <c r="J179" s="6"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C180" s="21"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21"/>
+      <c r="I180" s="21"/>
+      <c r="J180" s="6"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C181" s="21"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="21"/>
+      <c r="J181" s="6"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C182" s="21"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
+      <c r="I182" s="21"/>
+      <c r="J182" s="6"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B183" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C183" s="21"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="21"/>
+      <c r="J183" s="6"/>
+      <c r="K183" t="s">
+        <v>61</v>
+      </c>
+      <c r="L183" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="21"/>
+      <c r="J184" s="6"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C185" s="21"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="21"/>
+      <c r="H185" s="21"/>
+      <c r="I185" s="21"/>
+      <c r="J185" s="6"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B186" s="5"/>
+      <c r="C186" s="21"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="21"/>
+      <c r="G186" s="21"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="21"/>
+      <c r="J186" s="6"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C187" s="21"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="21"/>
+      <c r="H187" s="21"/>
+      <c r="I187" s="21"/>
+      <c r="J187" s="6"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C188" s="21"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="21"/>
+      <c r="J188" s="6"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="21"/>
+      <c r="I189" s="21"/>
+      <c r="J189" s="6"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="21"/>
+      <c r="I190" s="21"/>
+      <c r="J190" s="6"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="21"/>
+      <c r="I191" s="21"/>
+      <c r="J191" s="6"/>
+    </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C192" s="21"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21"/>
+      <c r="I192" s="21"/>
+      <c r="J192" s="6"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B193" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C193" s="21"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="21"/>
+      <c r="G193" s="21"/>
+      <c r="H193" s="21"/>
+      <c r="I193" s="21"/>
+      <c r="J193" s="6"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194" s="21"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="21"/>
+      <c r="I194" s="21"/>
+      <c r="J194" s="6"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C195" s="21"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="21"/>
+      <c r="G195" s="21"/>
+      <c r="H195" s="21"/>
+      <c r="I195" s="21"/>
+      <c r="J195" s="6"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="21"/>
+      <c r="J196" s="6"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C197" s="21"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="21"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="21"/>
+      <c r="J197" s="6"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C198" s="21"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="21"/>
+      <c r="I198" s="21"/>
+      <c r="J198" s="6"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C199" s="21"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21"/>
+      <c r="I199" s="21"/>
+      <c r="J199" s="6"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C200" s="21"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
+      <c r="I200" s="21"/>
+      <c r="J200" s="6"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
+      <c r="I201" s="21"/>
+      <c r="J201" s="6"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C202" s="21"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21"/>
+      <c r="I202" s="21"/>
+      <c r="J202" s="6"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="21"/>
+      <c r="H203" s="21"/>
+      <c r="I203" s="21"/>
+      <c r="J203" s="6"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+      <c r="G204" s="21"/>
+      <c r="H204" s="21"/>
+      <c r="I204" s="21"/>
+      <c r="J204" s="6"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C205" s="21"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
+      <c r="I205" s="21"/>
+      <c r="J205" s="6"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C206" s="21"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="21"/>
+      <c r="I206" s="21"/>
+      <c r="J206" s="6"/>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C207" s="21"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
+      <c r="I207" s="21"/>
+      <c r="J207" s="6"/>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C208" s="21"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="21"/>
+      <c r="I208" s="21"/>
+      <c r="J208" s="6"/>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C209" s="21"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
+      <c r="I209" s="21"/>
+      <c r="J209" s="6"/>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C210" s="21"/>
+      <c r="D210" s="21"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="21"/>
+      <c r="G210" s="21"/>
+      <c r="H210" s="21"/>
+      <c r="I210" s="21"/>
+      <c r="J210" s="6"/>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="21"/>
+      <c r="I211" s="21"/>
+      <c r="J211" s="6"/>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="21"/>
+      <c r="I212" s="21"/>
+      <c r="J212" s="6"/>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C213" s="21"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21"/>
+      <c r="I213" s="21"/>
+      <c r="J213" s="6"/>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C214" s="21"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21"/>
+      <c r="I214" s="21"/>
+      <c r="J214" s="6"/>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C215" s="21"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="21"/>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21"/>
+      <c r="I215" s="21"/>
+      <c r="J215" s="6"/>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C216" s="21"/>
+      <c r="D216" s="21"/>
+      <c r="E216" s="21"/>
+      <c r="F216" s="21"/>
+      <c r="G216" s="21"/>
+      <c r="H216" s="21"/>
+      <c r="I216" s="21"/>
+      <c r="J216" s="6"/>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C217" s="21"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
+      <c r="I217" s="21"/>
+      <c r="J217" s="6"/>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C218" s="21"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="21"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
+      <c r="I218" s="21"/>
+      <c r="J218" s="6"/>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C219" s="21"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="21"/>
+      <c r="I219" s="21"/>
+      <c r="J219" s="6"/>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C220" s="21"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="21"/>
+      <c r="G220" s="21"/>
+      <c r="H220" s="21"/>
+      <c r="I220" s="21"/>
+      <c r="J220" s="6"/>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C221" s="21"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21"/>
+      <c r="I221" s="21"/>
+      <c r="J221" s="6"/>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="21"/>
+      <c r="H222" s="21"/>
+      <c r="I222" s="21"/>
+      <c r="J222" s="6"/>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C223" s="21"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="21"/>
+      <c r="G223" s="21"/>
+      <c r="H223" s="21"/>
+      <c r="I223" s="21"/>
+      <c r="J223" s="6"/>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C224" s="21"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="21"/>
+      <c r="G224" s="21"/>
+      <c r="H224" s="21"/>
+      <c r="I224" s="21"/>
+      <c r="J224" s="6"/>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B225" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C225" s="21"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="21"/>
+      <c r="G225" s="21"/>
+      <c r="H225" s="21"/>
+      <c r="I225" s="21"/>
+      <c r="J225" s="6"/>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B226" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C226" s="21"/>
+      <c r="D226" s="21"/>
+      <c r="E226" s="21"/>
+      <c r="F226" s="21"/>
+      <c r="G226" s="21"/>
+      <c r="H226" s="21"/>
+      <c r="I226" s="21"/>
+      <c r="J226" s="6"/>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B227" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C227" s="21"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
+      <c r="G227" s="21"/>
+      <c r="H227" s="21"/>
+      <c r="I227" s="21"/>
+      <c r="J227" s="6"/>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B228" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C228" s="21"/>
+      <c r="D228" s="21"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="21"/>
+      <c r="G228" s="21"/>
+      <c r="H228" s="21"/>
+      <c r="I228" s="21"/>
+      <c r="J228" s="6"/>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B229" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C229" s="21"/>
+      <c r="D229" s="21"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21"/>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
+      <c r="I229" s="21"/>
+      <c r="J229" s="6"/>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B230" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C230" s="21"/>
+      <c r="D230" s="21"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21"/>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
+      <c r="I230" s="21"/>
+      <c r="J230" s="6"/>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B231" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C231" s="21"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="21"/>
+      <c r="F231" s="21"/>
+      <c r="G231" s="21"/>
+      <c r="H231" s="21"/>
+      <c r="I231" s="21"/>
+      <c r="J231" s="6"/>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B232" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C232" s="21"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="21"/>
+      <c r="G232" s="21"/>
+      <c r="H232" s="21"/>
+      <c r="I232" s="21"/>
+      <c r="J232" s="6"/>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B233" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C233" s="21"/>
+      <c r="D233" s="21"/>
+      <c r="E233" s="21"/>
+      <c r="F233" s="21"/>
+      <c r="G233" s="21"/>
+      <c r="H233" s="21"/>
+      <c r="I233" s="21"/>
+      <c r="J233" s="6"/>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B234" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C234" s="21"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="21"/>
+      <c r="I234" s="21"/>
+      <c r="J234" s="6"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B235" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C235" s="21"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="21"/>
+      <c r="G235" s="21"/>
+      <c r="H235" s="21"/>
+      <c r="I235" s="21"/>
+      <c r="J235" s="6"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C236" s="21"/>
+      <c r="D236" s="21"/>
+      <c r="E236" s="21"/>
+      <c r="F236" s="21"/>
+      <c r="G236" s="21"/>
+      <c r="H236" s="21"/>
+      <c r="I236" s="21"/>
+      <c r="J236" s="6"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B237" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C237" s="21"/>
+      <c r="D237" s="21"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="21"/>
+      <c r="G237" s="21"/>
+      <c r="H237" s="21"/>
+      <c r="I237" s="21"/>
+      <c r="J237" s="6"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B238" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C238" s="21"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="21"/>
+      <c r="G238" s="21"/>
+      <c r="H238" s="21"/>
+      <c r="I238" s="21"/>
+      <c r="J238" s="6"/>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B239" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C239" s="21"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21"/>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21"/>
+      <c r="I239" s="21"/>
+      <c r="J239" s="6"/>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B240" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C240" s="21"/>
+      <c r="D240" s="21"/>
+      <c r="E240" s="21"/>
+      <c r="F240" s="21"/>
+      <c r="G240" s="21"/>
+      <c r="H240" s="21"/>
+      <c r="I240" s="21"/>
+      <c r="J240" s="6"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B241" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C241" s="21"/>
+      <c r="D241" s="21"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="21"/>
+      <c r="G241" s="21"/>
+      <c r="H241" s="21"/>
+      <c r="I241" s="21"/>
+      <c r="J241" s="6"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B242" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C242" s="21"/>
+      <c r="D242" s="21"/>
+      <c r="E242" s="21"/>
+      <c r="F242" s="21"/>
+      <c r="G242" s="21"/>
+      <c r="H242" s="21"/>
+      <c r="I242" s="21"/>
+      <c r="J242" s="6"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B243" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C243" s="21"/>
+      <c r="D243" s="21"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="21"/>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21"/>
+      <c r="I243" s="21"/>
+      <c r="J243" s="6"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B244" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C244" s="21"/>
+      <c r="D244" s="21"/>
+      <c r="E244" s="21"/>
+      <c r="F244" s="21"/>
+      <c r="G244" s="21"/>
+      <c r="H244" s="21"/>
+      <c r="I244" s="21"/>
+      <c r="J244" s="6"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B245" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C245" s="21"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="21"/>
+      <c r="G245" s="21"/>
+      <c r="H245" s="21"/>
+      <c r="I245" s="21"/>
+      <c r="J245" s="6"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B246" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C246" s="21"/>
+      <c r="D246" s="21"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="21"/>
+      <c r="G246" s="21"/>
+      <c r="H246" s="21"/>
+      <c r="I246" s="21"/>
+      <c r="J246" s="6"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B247" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C247" s="21"/>
+      <c r="D247" s="21"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21"/>
+      <c r="G247" s="21"/>
+      <c r="H247" s="21"/>
+      <c r="I247" s="21"/>
+      <c r="J247" s="6"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B248" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C248" s="21"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="21"/>
+      <c r="G248" s="21"/>
+      <c r="H248" s="21"/>
+      <c r="I248" s="21"/>
+      <c r="J248" s="6"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B249" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C249" s="21"/>
+      <c r="D249" s="21"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="21"/>
+      <c r="G249" s="21"/>
+      <c r="H249" s="21"/>
+      <c r="I249" s="21"/>
+      <c r="J249" s="6"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B250" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C250" s="21"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="21"/>
+      <c r="G250" s="21"/>
+      <c r="H250" s="21"/>
+      <c r="I250" s="21"/>
+      <c r="J250" s="6"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B251" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C251" s="21"/>
+      <c r="D251" s="21"/>
+      <c r="E251" s="21"/>
+      <c r="F251" s="21"/>
+      <c r="G251" s="21"/>
+      <c r="H251" s="21"/>
+      <c r="I251" s="21"/>
+      <c r="J251" s="6"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B252" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C252" s="21"/>
+      <c r="D252" s="21"/>
+      <c r="E252" s="21"/>
+      <c r="F252" s="21"/>
+      <c r="G252" s="21"/>
+      <c r="H252" s="21"/>
+      <c r="I252" s="21"/>
+      <c r="J252" s="6"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B253" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C253" s="21"/>
+      <c r="D253" s="21"/>
+      <c r="E253" s="21"/>
+      <c r="F253" s="21"/>
+      <c r="G253" s="21"/>
+      <c r="H253" s="21"/>
+      <c r="I253" s="21"/>
+      <c r="J253" s="6"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B254" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C254" s="21"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="21"/>
+      <c r="F254" s="21"/>
+      <c r="G254" s="21"/>
+      <c r="H254" s="21"/>
+      <c r="I254" s="21"/>
+      <c r="J254" s="6"/>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B255" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C255" s="21"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="21"/>
+      <c r="G255" s="21"/>
+      <c r="H255" s="21"/>
+      <c r="I255" s="21"/>
+      <c r="J255" s="6"/>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B256" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C256" s="21"/>
+      <c r="D256" s="21"/>
+      <c r="E256" s="21"/>
+      <c r="F256" s="21"/>
+      <c r="G256" s="21"/>
+      <c r="H256" s="21"/>
+      <c r="I256" s="21"/>
+      <c r="J256" s="6"/>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B257" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C257" s="21"/>
+      <c r="D257" s="21"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="21"/>
+      <c r="G257" s="21"/>
+      <c r="H257" s="21"/>
+      <c r="I257" s="21"/>
+      <c r="J257" s="6"/>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B258" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C258" s="21"/>
+      <c r="D258" s="21"/>
+      <c r="E258" s="21"/>
+      <c r="F258" s="21"/>
+      <c r="G258" s="21"/>
+      <c r="H258" s="21"/>
+      <c r="I258" s="21"/>
+      <c r="J258" s="6"/>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B259" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C259" s="21"/>
+      <c r="D259" s="21"/>
+      <c r="E259" s="21"/>
+      <c r="F259" s="21"/>
+      <c r="G259" s="21"/>
+      <c r="H259" s="21"/>
+      <c r="I259" s="21"/>
+      <c r="J259" s="6"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B260" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C260" s="21"/>
+      <c r="D260" s="21"/>
+      <c r="E260" s="21"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="21"/>
+      <c r="H260" s="21"/>
+      <c r="I260" s="21"/>
+      <c r="J260" s="6"/>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B261" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C261" s="21"/>
+      <c r="D261" s="21"/>
+      <c r="E261" s="21"/>
+      <c r="F261" s="21"/>
+      <c r="G261" s="21"/>
+      <c r="H261" s="21"/>
+      <c r="I261" s="21"/>
+      <c r="J261" s="6"/>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B262" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C262" s="21"/>
+      <c r="D262" s="21"/>
+      <c r="E262" s="21"/>
+      <c r="F262" s="21"/>
+      <c r="G262" s="21"/>
+      <c r="H262" s="21"/>
+      <c r="I262" s="21"/>
+      <c r="J262" s="6"/>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B263" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C263" s="21"/>
+      <c r="D263" s="21"/>
+      <c r="E263" s="21"/>
+      <c r="F263" s="21"/>
+      <c r="G263" s="21"/>
+      <c r="H263" s="21"/>
+      <c r="I263" s="21"/>
+      <c r="J263" s="6"/>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B264" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C264" s="21"/>
+      <c r="D264" s="21"/>
+      <c r="E264" s="21"/>
+      <c r="F264" s="21"/>
+      <c r="G264" s="21"/>
+      <c r="H264" s="21"/>
+      <c r="I264" s="21"/>
+      <c r="J264" s="6"/>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B265" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C265" s="21"/>
+      <c r="D265" s="21"/>
+      <c r="E265" s="21"/>
+      <c r="F265" s="21"/>
+      <c r="G265" s="21"/>
+      <c r="H265" s="21"/>
+      <c r="I265" s="21"/>
+      <c r="J265" s="6"/>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B266" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C266" s="21"/>
+      <c r="D266" s="21"/>
+      <c r="E266" s="21"/>
+      <c r="F266" s="21"/>
+      <c r="G266" s="21"/>
+      <c r="H266" s="21"/>
+      <c r="I266" s="21"/>
+      <c r="J266" s="6"/>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B267" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C267" s="21"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="21"/>
+      <c r="F267" s="21"/>
+      <c r="G267" s="21"/>
+      <c r="H267" s="21"/>
+      <c r="I267" s="21"/>
+      <c r="J267" s="6"/>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B268" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C268" s="21"/>
+      <c r="D268" s="21"/>
+      <c r="E268" s="21"/>
+      <c r="F268" s="21"/>
+      <c r="G268" s="21"/>
+      <c r="H268" s="21"/>
+      <c r="I268" s="21"/>
+      <c r="J268" s="6"/>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B269" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C269" s="21"/>
+      <c r="D269" s="21"/>
+      <c r="E269" s="21"/>
+      <c r="F269" s="21"/>
+      <c r="G269" s="21"/>
+      <c r="H269" s="21"/>
+      <c r="I269" s="21"/>
+      <c r="J269" s="6"/>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B270" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C270" s="21"/>
+      <c r="D270" s="21"/>
+      <c r="E270" s="21"/>
+      <c r="F270" s="21"/>
+      <c r="G270" s="21"/>
+      <c r="H270" s="21"/>
+      <c r="I270" s="21"/>
+      <c r="J270" s="6"/>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B271" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C271" s="21"/>
+      <c r="D271" s="21"/>
+      <c r="E271" s="21"/>
+      <c r="F271" s="21"/>
+      <c r="G271" s="21"/>
+      <c r="H271" s="21"/>
+      <c r="I271" s="21"/>
+      <c r="J271" s="6"/>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B272" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C272" s="21"/>
+      <c r="D272" s="21"/>
+      <c r="E272" s="21"/>
+      <c r="F272" s="21"/>
+      <c r="G272" s="21"/>
+      <c r="H272" s="21"/>
+      <c r="I272" s="21"/>
+      <c r="J272" s="6"/>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B273" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C273" s="21"/>
+      <c r="D273" s="21"/>
+      <c r="E273" s="21"/>
+      <c r="F273" s="21"/>
+      <c r="G273" s="21"/>
+      <c r="H273" s="21"/>
+      <c r="I273" s="21"/>
+      <c r="J273" s="6"/>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B274" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C274" s="21"/>
+      <c r="D274" s="21"/>
+      <c r="E274" s="21"/>
+      <c r="F274" s="21"/>
+      <c r="G274" s="21"/>
+      <c r="H274" s="21"/>
+      <c r="I274" s="21"/>
+      <c r="J274" s="6"/>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B275" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C275" s="21"/>
+      <c r="D275" s="21"/>
+      <c r="E275" s="21"/>
+      <c r="F275" s="21"/>
+      <c r="G275" s="21"/>
+      <c r="H275" s="21"/>
+      <c r="I275" s="21"/>
+      <c r="J275" s="6"/>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B276" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C276" s="21"/>
+      <c r="D276" s="21"/>
+      <c r="E276" s="21"/>
+      <c r="F276" s="21"/>
+      <c r="G276" s="21"/>
+      <c r="H276" s="21"/>
+      <c r="I276" s="21"/>
+      <c r="J276" s="6"/>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B277" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C277" s="21"/>
+      <c r="D277" s="21"/>
+      <c r="E277" s="21"/>
+      <c r="F277" s="21"/>
+      <c r="G277" s="21"/>
+      <c r="H277" s="21"/>
+      <c r="I277" s="21"/>
+      <c r="J277" s="6"/>
+    </row>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B278" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C278" s="21"/>
+      <c r="D278" s="21"/>
+      <c r="E278" s="21"/>
+      <c r="F278" s="21"/>
+      <c r="G278" s="21"/>
+      <c r="H278" s="21"/>
+      <c r="I278" s="21"/>
+      <c r="J278" s="6"/>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B279" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C279" s="21"/>
+      <c r="D279" s="21"/>
+      <c r="E279" s="21"/>
+      <c r="F279" s="21"/>
+      <c r="G279" s="21"/>
+      <c r="H279" s="21"/>
+      <c r="I279" s="21"/>
+      <c r="J279" s="6"/>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B280" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C280" s="21"/>
+      <c r="D280" s="21"/>
+      <c r="E280" s="21"/>
+      <c r="F280" s="21"/>
+      <c r="G280" s="21"/>
+      <c r="H280" s="21"/>
+      <c r="I280" s="21"/>
+      <c r="J280" s="6"/>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B281" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C281" s="21"/>
+      <c r="D281" s="21"/>
+      <c r="E281" s="21"/>
+      <c r="F281" s="21"/>
+      <c r="G281" s="21"/>
+      <c r="H281" s="21"/>
+      <c r="I281" s="21"/>
+      <c r="J281" s="6"/>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B282" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C282" s="21"/>
+      <c r="D282" s="21"/>
+      <c r="E282" s="21"/>
+      <c r="F282" s="21"/>
+      <c r="G282" s="21"/>
+      <c r="H282" s="21"/>
+      <c r="I282" s="21"/>
+      <c r="J282" s="6"/>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B283" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C283" s="21"/>
+      <c r="D283" s="21"/>
+      <c r="E283" s="21"/>
+      <c r="F283" s="21"/>
+      <c r="G283" s="21"/>
+      <c r="H283" s="21"/>
+      <c r="I283" s="21"/>
+      <c r="J283" s="6"/>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B284" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C284" s="21"/>
+      <c r="D284" s="21"/>
+      <c r="E284" s="21"/>
+      <c r="F284" s="21"/>
+      <c r="G284" s="21"/>
+      <c r="H284" s="21"/>
+      <c r="I284" s="21"/>
+      <c r="J284" s="6"/>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B285" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C285" s="21"/>
+      <c r="D285" s="21"/>
+      <c r="E285" s="21"/>
+      <c r="F285" s="21"/>
+      <c r="G285" s="21"/>
+      <c r="H285" s="21"/>
+      <c r="I285" s="21"/>
+      <c r="J285" s="6"/>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B286" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C286" s="21"/>
+      <c r="D286" s="21"/>
+      <c r="E286" s="21"/>
+      <c r="F286" s="21"/>
+      <c r="G286" s="21"/>
+      <c r="H286" s="21"/>
+      <c r="I286" s="21"/>
+      <c r="J286" s="6"/>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B287" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C287" s="21"/>
+      <c r="D287" s="21"/>
+      <c r="E287" s="21"/>
+      <c r="F287" s="21"/>
+      <c r="G287" s="21"/>
+      <c r="H287" s="21"/>
+      <c r="I287" s="21"/>
+      <c r="J287" s="6"/>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B288" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C288" s="21"/>
+      <c r="D288" s="21"/>
+      <c r="E288" s="21"/>
+      <c r="F288" s="21"/>
+      <c r="G288" s="21"/>
+      <c r="H288" s="21"/>
+      <c r="I288" s="21"/>
+      <c r="J288" s="6"/>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B289" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C289" s="21"/>
+      <c r="D289" s="21"/>
+      <c r="E289" s="21"/>
+      <c r="F289" s="21"/>
+      <c r="G289" s="21"/>
+      <c r="H289" s="21"/>
+      <c r="I289" s="21"/>
+      <c r="J289" s="6"/>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B290" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C290" s="21"/>
+      <c r="D290" s="21"/>
+      <c r="E290" s="21"/>
+      <c r="F290" s="21"/>
+      <c r="G290" s="21"/>
+      <c r="H290" s="21"/>
+      <c r="I290" s="21"/>
+      <c r="J290" s="6"/>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B291" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C291" s="21"/>
+      <c r="D291" s="21"/>
+      <c r="E291" s="21"/>
+      <c r="F291" s="21"/>
+      <c r="G291" s="21"/>
+      <c r="H291" s="21"/>
+      <c r="I291" s="21"/>
+      <c r="J291" s="6"/>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B292" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C292" s="21"/>
+      <c r="D292" s="21"/>
+      <c r="E292" s="21"/>
+      <c r="F292" s="21"/>
+      <c r="G292" s="21"/>
+      <c r="H292" s="21"/>
+      <c r="I292" s="21"/>
+      <c r="J292" s="6"/>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B293" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C293" s="21"/>
+      <c r="D293" s="21"/>
+      <c r="E293" s="21"/>
+      <c r="F293" s="21"/>
+      <c r="G293" s="21"/>
+      <c r="H293" s="21"/>
+      <c r="I293" s="21"/>
+      <c r="J293" s="6"/>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B294" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C294" s="21"/>
+      <c r="D294" s="21"/>
+      <c r="E294" s="21"/>
+      <c r="F294" s="21"/>
+      <c r="G294" s="21"/>
+      <c r="H294" s="21"/>
+      <c r="I294" s="21"/>
+      <c r="J294" s="6"/>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B295" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C295" s="21"/>
+      <c r="D295" s="21"/>
+      <c r="E295" s="21"/>
+      <c r="F295" s="21"/>
+      <c r="G295" s="21"/>
+      <c r="H295" s="21"/>
+      <c r="I295" s="21"/>
+      <c r="J295" s="6"/>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B296" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C296" s="21"/>
+      <c r="D296" s="21"/>
+      <c r="E296" s="21"/>
+      <c r="F296" s="21"/>
+      <c r="G296" s="21"/>
+      <c r="H296" s="21"/>
+      <c r="I296" s="21"/>
+      <c r="J296" s="6"/>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B297" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C297" s="21"/>
+      <c r="D297" s="21"/>
+      <c r="E297" s="21"/>
+      <c r="F297" s="21"/>
+      <c r="G297" s="21"/>
+      <c r="H297" s="21"/>
+      <c r="I297" s="21"/>
+      <c r="J297" s="6"/>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B298" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C298" s="21"/>
+      <c r="D298" s="21"/>
+      <c r="E298" s="21"/>
+      <c r="F298" s="21"/>
+      <c r="G298" s="21"/>
+      <c r="H298" s="21"/>
+      <c r="I298" s="21"/>
+      <c r="J298" s="6"/>
+    </row>
+    <row r="299" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B299" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C299" s="21"/>
+      <c r="D299" s="21"/>
+      <c r="E299" s="21"/>
+      <c r="F299" s="21"/>
+      <c r="G299" s="21"/>
+      <c r="H299" s="21"/>
+      <c r="I299" s="21"/>
+      <c r="J299" s="6"/>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B300" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C300" s="21"/>
+      <c r="D300" s="21"/>
+      <c r="E300" s="21"/>
+      <c r="F300" s="21"/>
+      <c r="G300" s="21"/>
+      <c r="H300" s="21"/>
+      <c r="I300" s="21"/>
+      <c r="J300" s="6"/>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B301" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C301" s="21"/>
+      <c r="D301" s="21"/>
+      <c r="E301" s="21"/>
+      <c r="F301" s="21"/>
+      <c r="G301" s="21"/>
+      <c r="H301" s="21"/>
+      <c r="I301" s="21"/>
+      <c r="J301" s="6"/>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B302" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C302" s="21"/>
+      <c r="D302" s="21"/>
+      <c r="E302" s="21"/>
+      <c r="F302" s="21"/>
+      <c r="G302" s="21"/>
+      <c r="H302" s="21"/>
+      <c r="I302" s="21"/>
+      <c r="J302" s="6"/>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B303" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C303" s="21"/>
+      <c r="D303" s="21"/>
+      <c r="E303" s="21"/>
+      <c r="F303" s="21"/>
+      <c r="G303" s="21"/>
+      <c r="H303" s="21"/>
+      <c r="I303" s="21"/>
+      <c r="J303" s="6"/>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B304" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C304" s="21"/>
+      <c r="D304" s="21"/>
+      <c r="E304" s="21"/>
+      <c r="F304" s="21"/>
+      <c r="G304" s="21"/>
+      <c r="H304" s="21"/>
+      <c r="I304" s="21"/>
+      <c r="J304" s="6"/>
+    </row>
+    <row r="305" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B305" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C305" s="21"/>
+      <c r="D305" s="21"/>
+      <c r="E305" s="21"/>
+      <c r="F305" s="21"/>
+      <c r="G305" s="21"/>
+      <c r="H305" s="21"/>
+      <c r="I305" s="21"/>
+      <c r="J305" s="6"/>
+    </row>
+    <row r="306" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B306" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C306" s="21"/>
+      <c r="D306" s="21"/>
+      <c r="E306" s="21"/>
+      <c r="F306" s="21"/>
+      <c r="G306" s="21"/>
+      <c r="H306" s="21"/>
+      <c r="I306" s="21"/>
+      <c r="J306" s="6"/>
+    </row>
+    <row r="307" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B307" s="5"/>
+      <c r="C307" s="21"/>
+      <c r="D307" s="21"/>
+      <c r="E307" s="21"/>
+      <c r="F307" s="21"/>
+      <c r="G307" s="21"/>
+      <c r="H307" s="21"/>
+      <c r="I307" s="21"/>
+      <c r="J307" s="6"/>
+    </row>
+    <row r="308" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B308" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C308" s="21"/>
+      <c r="D308" s="21"/>
+      <c r="E308" s="21"/>
+      <c r="F308" s="21"/>
+      <c r="G308" s="21"/>
+      <c r="H308" s="21"/>
+      <c r="I308" s="21"/>
+      <c r="J308" s="6"/>
+    </row>
+    <row r="309" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B309" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C309" s="21"/>
+      <c r="D309" s="21"/>
+      <c r="E309" s="21"/>
+      <c r="F309" s="21"/>
+      <c r="G309" s="21"/>
+      <c r="H309" s="21"/>
+      <c r="I309" s="21"/>
+      <c r="J309" s="6"/>
+    </row>
+    <row r="310" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B310" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C310" s="21"/>
+      <c r="D310" s="21"/>
+      <c r="E310" s="21"/>
+      <c r="F310" s="21"/>
+      <c r="G310" s="21"/>
+      <c r="H310" s="21"/>
+      <c r="I310" s="21"/>
+      <c r="J310" s="6"/>
+    </row>
+    <row r="311" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B311" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C311" s="21"/>
+      <c r="D311" s="21"/>
+      <c r="E311" s="21"/>
+      <c r="F311" s="21"/>
+      <c r="G311" s="21"/>
+      <c r="H311" s="21"/>
+      <c r="I311" s="21"/>
+      <c r="J311" s="6"/>
+    </row>
+    <row r="312" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B312" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C312" s="9"/>
+      <c r="D312" s="9"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="9"/>
+      <c r="G312" s="9"/>
+      <c r="H312" s="9"/>
+      <c r="I312" s="9"/>
+      <c r="J312" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/me/3.shopping/3.Xay-dung-chuc-nang-hien-thi-san-pham.xlsx
+++ b/me/3.shopping/3.Xay-dung-chuc-nang-hien-thi-san-pham.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC43A764-64CE-4560-9DE0-3FFECA37BE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA488A-EF75-4A5A-866F-5B0AE594E779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetItems" sheetId="1" r:id="rId1"/>
     <sheet name="GetItemByID" sheetId="2" r:id="rId2"/>
     <sheet name="ShowItemsInHTML" sheetId="3" r:id="rId3"/>
+    <sheet name="JQuery" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="205">
   <si>
     <t>構成</t>
   </si>
@@ -597,6 +598,51 @@
   </si>
   <si>
     <t>sau khi xóa đi phần html hiển thị các product trong kho hàng</t>
+  </si>
+  <si>
+    <t>Để dùng được jquery khi viết typescript thì cần phải install</t>
+  </si>
+  <si>
+    <t>npm i --save-dev @types/jquery</t>
+  </si>
+  <si>
+    <t>node_modules</t>
+  </si>
+  <si>
+    <t>package-lock.json</t>
+  </si>
+  <si>
+    <t>package.json</t>
+  </si>
+  <si>
+    <t>namespace MElement {</t>
+  </si>
+  <si>
+    <t>    export const ELM_LIST_PRODUCT : string = "#list-product";</t>
+  </si>
+  <si>
+    <t>// Hiển thị danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>function showListProduct() : void{</t>
+  </si>
+  <si>
+    <t>    $(MElement.ELM_LIST_PRODUCT).html(productRepository.showItemsInHTML());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jQuery(function() { </t>
+  </si>
+  <si>
+    <t>    showListProduct();</t>
+  </si>
+  <si>
+    <t>})</t>
+  </si>
+  <si>
+    <t>Sau khi install @types/jquery</t>
+  </si>
+  <si>
+    <t>Sau khi install @types/jquery nên có thể sử dụng jquery</t>
   </si>
 </sst>
 </file>
@@ -1754,6 +1800,573 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>322971</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E64F68B-DCEC-44F4-2B10-60B533F00EC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="762000"/>
+          <a:ext cx="7028571" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685E241E-FAC2-BAC8-F765-DD5E768EBAA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="2095500"/>
+          <a:ext cx="1495425" cy="4648200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF32E56-3A53-F3BA-DE80-9F427F8FBC13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="2066925"/>
+          <a:ext cx="1228725" cy="6219825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCCC5DA-3D7C-F464-D98D-821E32DD7729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="2095500"/>
+          <a:ext cx="1209675" cy="6391275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>551619</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>66571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F0DE76-3827-1D20-1485-8D8B23B40820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13525500"/>
+          <a:ext cx="6647619" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DAFDF1-D58B-1B11-7436-B95AD4A2C54B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="14363700"/>
+          <a:ext cx="1771650" cy="4410075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19F4160-FECA-F7DF-CCCD-7701A9D818D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2343150" y="18802350"/>
+          <a:ext cx="209550" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08247D8-1EFD-2794-FF21-270B19EB7FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="17668875"/>
+          <a:ext cx="742950" cy="4524375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>151172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E9EAC79-6C11-4299-95AA-BC95BC8F6D25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="7105650"/>
+          <a:ext cx="7772400" cy="4285022"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BECAEA2-2ADD-E833-0695-A2079EEBF6B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5448300" y="9658350"/>
+          <a:ext cx="2867025" cy="2038350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C682636-F9F2-7A13-5D3B-8D3DE8A7C06D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2228850" y="7981950"/>
+          <a:ext cx="771525" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5262,8 +5875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C621460-AB24-409E-9B1B-2C0FAA253CC9}">
   <dimension ref="A2:P312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L184" sqref="L184"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9397,4 +10010,1177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B338927A-2EB9-4285-9D26-D0D5944014B9}">
+  <dimension ref="A2:L119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="17"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="17"/>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="17"/>
+      <c r="I44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="17"/>
+      <c r="I45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="6"/>
+      <c r="K62" t="s">
+        <v>61</v>
+      </c>
+      <c r="L62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="22"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="6"/>
+      <c r="K65" t="s">
+        <v>61</v>
+      </c>
+      <c r="L65" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="10"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="17"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="17"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="17"/>
+      <c r="I99" t="s">
+        <v>61</v>
+      </c>
+      <c r="J99" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="17"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="17"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="17"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="20"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="4"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.shopping/3.Xay-dung-chuc-nang-hien-thi-san-pham.xlsx
+++ b/me/3.shopping/3.Xay-dung-chuc-nang-hien-thi-san-pham.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA488A-EF75-4A5A-866F-5B0AE594E779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A1B0D0-B812-4EF7-A353-9189C03B60D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetItems" sheetId="1" r:id="rId1"/>
     <sheet name="GetItemByID" sheetId="2" r:id="rId2"/>
     <sheet name="ShowItemsInHTML" sheetId="3" r:id="rId3"/>
     <sheet name="JQuery" sheetId="4" r:id="rId4"/>
+    <sheet name="ShowBuyItem" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="213">
   <si>
     <t>構成</t>
   </si>
@@ -643,6 +644,30 @@
   </si>
   <si>
     <t>Sau khi install @types/jquery nên có thể sử dụng jquery</t>
+  </si>
+  <si>
+    <t>                                    ${ this.showBuyItemInHTML(currentItem)}</t>
+  </si>
+  <si>
+    <t>    private showBuyItemInHTML(product: Product) : string {</t>
+  </si>
+  <si>
+    <t>        if (product.canBuy == true){</t>
+  </si>
+  <si>
+    <t>            xhtmlResult = `&lt;input name="quantity-product-${ product.id }" type="number" value="1" min="1"&gt;</t>
+  </si>
+  <si>
+    <t>        }else{</t>
+  </si>
+  <si>
+    <t>Đối với các sản phẩm ko thể bán thì chỉ cần hiển thị giá tiền của sản phẩm đó</t>
+  </si>
+  <si>
+    <t>                            &lt;a data-product="${ product.id }" href="#" class="price"&gt;$ ${ product.price } &lt;/a&gt;`;</t>
+  </si>
+  <si>
+    <t>            xhtmlResult = `&lt;span class="price"&gt;$ ${ product.price }&lt;/span&gt;`;</t>
   </si>
 </sst>
 </file>
@@ -2367,6 +2392,476 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BAC338-3B73-C0D0-F9F4-B155491B9D35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1952625" y="5676900"/>
+          <a:ext cx="657225" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8693</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>123721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4A8EBD-519B-C5B1-2D62-C1D40488607D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="23298150"/>
+          <a:ext cx="6657143" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58C41B9-D8B6-B136-9607-999D56F64B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="24117300"/>
+          <a:ext cx="1476375" cy="4543425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F2E682-5C71-0BFF-2433-3650F6615632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505075" y="28727400"/>
+          <a:ext cx="66675" cy="3362325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAED194D-3681-AD62-EB94-FFF2E662A016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="27593925"/>
+          <a:ext cx="809625" cy="4476750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>159424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EEC9ECE-6F4D-2125-4455-434F6AFAE493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10582275" y="18268950"/>
+          <a:ext cx="7772400" cy="4178974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400635F1-68F2-A5B1-0FA0-FE4788C3649E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1847850" y="18230850"/>
+          <a:ext cx="828675" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEB8B8D-A05B-66D5-C949-964A4B8F9010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2524125" y="19926300"/>
+          <a:ext cx="8753475" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51977D44-4C75-77D7-8835-8059FB6B5D2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="21659850"/>
+          <a:ext cx="6715125" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10016,8 +10511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B338927A-2EB9-4285-9D26-D0D5944014B9}">
   <dimension ref="A2:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11183,4 +11678,2397 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1F283-0B62-46D8-9B6D-B6E63E17882A}">
+  <dimension ref="A2:P171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="P121" sqref="P121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="6"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="6"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="6"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="6"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="6"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="6"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="6"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="6"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="6"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="6"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="6"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="6"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="6"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="6"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="6"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="6"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="6"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="6"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="6"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="6"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="6"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="6"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="6"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="6"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="6"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="6"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="6"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="6"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="6"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="6"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B106" s="5"/>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="6"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B107" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="6"/>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B108" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="21"/>
+      <c r="P108" s="6"/>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B109" s="22"/>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="6"/>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B110" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="6"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B111" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="6"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B112" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="6"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B113" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="6"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B114" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="21"/>
+      <c r="O114" s="21"/>
+      <c r="P114" s="6"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B115" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+      <c r="O115" s="21"/>
+      <c r="P115" s="6"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B116" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="6"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B117" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
+      <c r="P117" s="6"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="10"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="11"/>
+      <c r="B131" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="11"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="17"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="17"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="17"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="11"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="17"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="17"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="11"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="17"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="17"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="17"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="17"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="17"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="17"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="17"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="17"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="17"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="17"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="17"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="17"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="17"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="17"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="17"/>
+      <c r="I151" t="s">
+        <v>61</v>
+      </c>
+      <c r="J151" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="17"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="17"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="11"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="17"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="17"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="11"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="17"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="17"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="11"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="17"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="17"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="11"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="17"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="11"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="17"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="11"/>
+      <c r="B162" s="18"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="20"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="4"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.shopping/3.Xay-dung-chuc-nang-hien-thi-san-pham.xlsx
+++ b/me/3.shopping/3.Xay-dung-chuc-nang-hien-thi-san-pham.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\typescript\me\3.shopping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A1B0D0-B812-4EF7-A353-9189C03B60D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE42D42-45B8-445F-826C-D4CFEE84C1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetItems" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ShowItemsInHTML" sheetId="3" r:id="rId3"/>
     <sheet name="JQuery" sheetId="4" r:id="rId4"/>
     <sheet name="ShowBuyItem" sheetId="5" r:id="rId5"/>
+    <sheet name="Helpers" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="230">
   <si>
     <t>構成</t>
   </si>
@@ -668,6 +669,101 @@
   </si>
   <si>
     <t>            xhtmlResult = `&lt;span class="price"&gt;$ ${ product.price }&lt;/span&gt;`;</t>
+  </si>
+  <si>
+    <t>libs</t>
+  </si>
+  <si>
+    <t>helpers.ts</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Xây dựng helper hiển thị giá tiền sản phẩm</t>
+  </si>
+  <si>
+    <t>typescript\3.shopping\ts\libs\helpers.ts</t>
+  </si>
+  <si>
+    <t>export class Helpers {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    public static toCurrency(value: number, currencyUnit: string, position: string = "left" ) : string {</t>
+  </si>
+  <si>
+    <t>        if(position == "left"){</t>
+  </si>
+  <si>
+    <t>            return currencyUnit + " " + value;</t>
+  </si>
+  <si>
+    <t>        }else if(position == "right"){</t>
+  </si>
+  <si>
+    <t>            return value + " " + currencyUnit;</t>
+  </si>
+  <si>
+    <t>import { Helpers } from "./libs/helpers";</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            &lt;a data-product="${ product.id }" href="#" class="price"&gt; ${ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Helpers.toCurrency(product.price, "USD", "right")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } &lt;/a&gt;`;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            xhtmlResult = `&lt;span class="price"&gt;${ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Helpers.toCurrency(product.price, "$")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> }&lt;/span&gt;`;</t>
+    </r>
+  </si>
+  <si>
+    <t>helpers.js</t>
+  </si>
+  <si>
+    <t>Dùng static để khi gọi đến phương thức toCurrency này sẽ ko cần khởi tạo đối tượng của class Helpers</t>
   </si>
 </sst>
 </file>
@@ -2500,9 +2596,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2518,7 +2614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1019175" y="24117300"/>
-          <a:ext cx="1476375" cy="4543425"/>
+          <a:ext cx="1447800" cy="4143375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2862,6 +2958,582 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6237D03C-A76C-3401-7D06-C54C477AA0C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2324100" y="5476875"/>
+          <a:ext cx="1123950" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B33FC2B-A943-AA20-7EA2-5DA2C6051AAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2543175" y="6057900"/>
+          <a:ext cx="1104900" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>37265</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>142765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92022C99-4C80-7274-2CCD-BB4CB0A2FA5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="26508075"/>
+          <a:ext cx="6676190" cy="876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9F64F7-C87D-3C34-4B7F-ECE08123307A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="27393900"/>
+          <a:ext cx="1524000" cy="4133850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4ECE224-33F9-D67D-C5B7-01316B1EAE34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2438400" y="32337375"/>
+          <a:ext cx="247650" cy="3752850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FE35BA-446B-2DB6-9E53-A2CA8A62D8A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3000375" y="30832425"/>
+          <a:ext cx="666750" cy="4895850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>180173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60545590-A1E7-0032-018A-6E29D065BB0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420350" y="21459825"/>
+          <a:ext cx="7772400" cy="4247348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA8A3B5-747E-DFFB-7D0E-4BC0C0BDED40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7791450" y="23583900"/>
+          <a:ext cx="6086475" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDE89D5-36FD-39DC-705C-0C5D31ED2D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5457825" y="24879300"/>
+          <a:ext cx="8524875" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB131B02-C349-EA91-6BF6-8F21BCE63212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="10848975"/>
+          <a:ext cx="3600450" cy="13611225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD291DE-66CC-F0E0-CA82-A5C55BCFBF07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="361950"/>
+          <a:ext cx="1752600" cy="5038725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6370,7 +7042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C621460-AB24-409E-9B1B-2C0FAA253CC9}">
   <dimension ref="A2:P312"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="A117" sqref="A117:B118"/>
     </sheetView>
   </sheetViews>
@@ -10511,8 +11183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B338927A-2EB9-4285-9D26-D0D5944014B9}">
   <dimension ref="A2:L119"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:H119"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11684,8 +12356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1F283-0B62-46D8-9B6D-B6E63E17882A}">
   <dimension ref="A2:P171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="P121" sqref="P121"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165:H171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13827,12 +14499,18 @@
       <c r="B149" s="16"/>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
-      <c r="E149" s="12" t="s">
+      <c r="E149" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="17"/>
+      <c r="I149" t="s">
+        <v>61</v>
+      </c>
+      <c r="J149" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
@@ -13851,18 +14529,12 @@
       <c r="B151" s="16"/>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
-      <c r="E151" s="7" t="s">
+      <c r="E151" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
       <c r="H151" s="17"/>
-      <c r="I151" t="s">
-        <v>61</v>
-      </c>
-      <c r="J151" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
@@ -14071,4 +14743,2677 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F9CD59-F4E0-4679-A8CB-D8E11009A7F4}">
+  <dimension ref="A2:P192"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="17"/>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="17"/>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="17"/>
+      <c r="I32" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="6"/>
+      <c r="L44" t="s">
+        <v>61</v>
+      </c>
+      <c r="M44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="4"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="6"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="6"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="6"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="6"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="6"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="6"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="6"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="6"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="6"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="6"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="6"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="6"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="21"/>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="21"/>
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="21"/>
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="6"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="6"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="6"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="6"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="6"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="6"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="6"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="6"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="6"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="6"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="6"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="6"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="6"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="6"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" s="21"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="6"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="6"/>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="21"/>
+      <c r="P108" s="6"/>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" s="21"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="6"/>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C110" s="21"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="6"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="6"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C112" s="21"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="6"/>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="6"/>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="21"/>
+      <c r="O114" s="21"/>
+      <c r="P114" s="6"/>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+      <c r="O115" s="21"/>
+      <c r="P115" s="6"/>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="6"/>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C117" s="21"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
+      <c r="P117" s="6"/>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118" s="21"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21"/>
+      <c r="P118" s="6"/>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C119" s="21"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+      <c r="O119" s="21"/>
+      <c r="P119" s="6"/>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+      <c r="O120" s="21"/>
+      <c r="P120" s="6"/>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" s="21"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21"/>
+      <c r="P121" s="6"/>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
+      <c r="O122" s="21"/>
+      <c r="P122" s="6"/>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+      <c r="O123" s="21"/>
+      <c r="P123" s="6"/>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C124" s="21"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="21"/>
+      <c r="P124" s="6"/>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" s="21"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+      <c r="O125" s="21"/>
+      <c r="P125" s="6"/>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="C126" s="21"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
+      <c r="I126" s="21"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="21"/>
+      <c r="O126" s="21"/>
+      <c r="P126" s="6"/>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="21"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="21"/>
+      <c r="M127" s="21"/>
+      <c r="N127" s="21"/>
+      <c r="O127" s="21"/>
+      <c r="P127" s="6"/>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="21"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="21"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="21"/>
+      <c r="O128" s="21"/>
+      <c r="P128" s="6"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="21"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="21"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="21"/>
+      <c r="O129" s="21"/>
+      <c r="P129" s="6"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+      <c r="J130" s="21"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="21"/>
+      <c r="M130" s="21"/>
+      <c r="N130" s="21"/>
+      <c r="O130" s="21"/>
+      <c r="P130" s="6"/>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="21"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="21"/>
+      <c r="M131" s="21"/>
+      <c r="N131" s="21"/>
+      <c r="O131" s="21"/>
+      <c r="P131" s="6"/>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" s="21"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
+      <c r="J132" s="21"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="21"/>
+      <c r="M132" s="21"/>
+      <c r="N132" s="21"/>
+      <c r="O132" s="21"/>
+      <c r="P132" s="6"/>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="21"/>
+      <c r="M133" s="21"/>
+      <c r="N133" s="21"/>
+      <c r="O133" s="21"/>
+      <c r="P133" s="6"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
+      <c r="M134" s="21"/>
+      <c r="N134" s="21"/>
+      <c r="O134" s="21"/>
+      <c r="P134" s="6"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c r="L135" s="9"/>
+      <c r="M135" s="9"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
+      <c r="P135" s="10"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="15"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="17"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="17"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="17"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="17"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="17"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="11"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="17"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="11"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="17"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="11"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="17"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="11"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="17"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="11"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="17"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="11"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="17"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="11"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="17"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="11"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="17"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="11"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="17"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="11"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="17"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="11"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="17"/>
+      <c r="I164" t="s">
+        <v>61</v>
+      </c>
+      <c r="J164" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="11"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G165" s="12"/>
+      <c r="H165" s="17"/>
+      <c r="I165" t="s">
+        <v>61</v>
+      </c>
+      <c r="J165" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="11"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="17"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="11"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="17"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="11"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="17"/>
+      <c r="I168" t="s">
+        <v>61</v>
+      </c>
+      <c r="J168" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="11"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="17"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="11"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="17"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="11"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="17"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="11"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="17"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="11"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="17"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="11"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G174" s="12"/>
+      <c r="H174" s="17"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="11"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="17"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="11"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="17"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="11"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="17"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="11"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="17"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="11"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="17"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="11"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="17"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="11"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="17"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="11"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="17"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="11"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="20"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C188" s="21"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C189" s="21"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C191" s="21"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>